--- a/data/PdfToExcel_Parametros.xlsx
+++ b/data/PdfToExcel_Parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyect\PdfToExcel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5097B4B3-3CF1-40E5-AC0A-8675A361A67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F1CD34-C6CC-463C-9A6C-8C2EEC8A0E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endesa" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="nexus" sheetId="3" r:id="rId3"/>
     <sheet name="repsol" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="186">
   <si>
     <t>Selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -619,19 +618,22 @@
     <t>PotenciaxYYx</t>
   </si>
   <si>
-    <t>OtrosxYYx</t>
-  </si>
-  <si>
     <t>DescuentosxYYx</t>
   </si>
   <si>
-    <t xml:space="preserve">Impuesto electricidad </t>
-  </si>
-  <si>
-    <t>IVA normal 21%</t>
-  </si>
-  <si>
     <t>WxRx+ZxRx+AAxRx+ABxRx+ACxRx+VxRx+YxRx</t>
+  </si>
+  <si>
+    <t>Impuesto electricidad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVA normal 21%&amp;&amp;IVA normal 10 %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtrosxYYx&amp;&amp;VariosxYYx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -642,13 +644,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -656,14 +658,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -685,7 +687,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -762,7 +764,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,6 +785,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1334,20 +1337,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1543,7 +1546,7 @@
         <v>139</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -1576,6 +1579,12 @@
       <c r="E22">
         <v>0</v>
       </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
@@ -1593,6 +1602,12 @@
       <c r="E23">
         <v>0</v>
       </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
@@ -1613,7 +1628,7 @@
         <v>139</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -1626,13 +1641,14 @@
       <c r="A26" t="s">
         <v>62</v>
       </c>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1641,6 +1657,12 @@
         <v>6</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
         <v>0</v>
       </c>
     </row>
@@ -1649,7 +1671,7 @@
         <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1658,6 +1680,12 @@
         <v>6</v>
       </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28">
         <v>0</v>
       </c>
     </row>
@@ -2097,17 +2125,17 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2145,7 +2173,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -2157,7 +2185,7 @@
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
@@ -2169,7 +2197,7 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -2184,7 +2212,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2201,7 +2229,7 @@
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>127</v>
       </c>
@@ -2218,7 +2246,7 @@
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -2233,7 +2261,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -2249,7 +2277,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -2265,7 +2293,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -2285,7 +2313,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -2305,7 +2333,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -2330,7 +2358,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -2344,7 +2372,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -2358,7 +2386,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -2372,7 +2400,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -2386,7 +2414,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -2404,7 +2432,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -2420,7 +2448,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
@@ -2443,7 +2471,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -2470,7 +2498,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>129</v>
       </c>
@@ -2495,7 +2523,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
@@ -2509,7 +2537,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -2523,7 +2551,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -2537,7 +2565,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -2551,7 +2579,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
@@ -2565,7 +2593,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2579,7 +2607,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2593,7 +2621,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
@@ -2613,7 +2641,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>66</v>
       </c>
@@ -2633,7 +2661,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
@@ -2653,7 +2681,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -2666,7 +2694,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
@@ -2679,7 +2707,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -2692,7 +2720,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>71</v>
       </c>
@@ -2706,7 +2734,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>72</v>
       </c>
@@ -2720,7 +2748,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>73</v>
       </c>
@@ -2734,7 +2762,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>74</v>
       </c>
@@ -2748,7 +2776,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
@@ -2761,7 +2789,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>76</v>
       </c>
@@ -2774,7 +2802,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -2787,7 +2815,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>78</v>
       </c>
@@ -2800,7 +2828,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>79</v>
       </c>
@@ -2813,7 +2841,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>80</v>
       </c>
@@ -2826,7 +2854,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>81</v>
       </c>
@@ -2839,7 +2867,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>82</v>
       </c>
@@ -2852,7 +2880,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>83</v>
       </c>
@@ -2865,7 +2893,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>84</v>
       </c>
@@ -2878,7 +2906,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>85</v>
       </c>
@@ -2891,7 +2919,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>86</v>
       </c>
@@ -2904,7 +2932,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>87</v>
       </c>
@@ -2917,7 +2945,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>88</v>
       </c>
@@ -2930,7 +2958,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>89</v>
       </c>
@@ -2943,7 +2971,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>90</v>
       </c>
@@ -2956,7 +2984,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>91</v>
       </c>
@@ -2969,7 +2997,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>92</v>
       </c>
@@ -2982,7 +3010,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>93</v>
       </c>
@@ -2995,7 +3023,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>94</v>
       </c>
@@ -3008,7 +3036,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -3021,7 +3049,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
         <v>96</v>
       </c>
@@ -3034,7 +3062,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>97</v>
       </c>
@@ -3054,7 +3082,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
         <v>98</v>
       </c>
@@ -3074,7 +3102,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>99</v>
       </c>
@@ -3094,7 +3122,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>100</v>
       </c>
@@ -3107,7 +3135,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>101</v>
       </c>
@@ -3120,7 +3148,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>102</v>
       </c>
@@ -3133,7 +3161,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>103</v>
       </c>
@@ -3153,7 +3181,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>104</v>
       </c>
@@ -3173,7 +3201,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>105</v>
       </c>
@@ -3193,7 +3221,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>106</v>
       </c>
@@ -3206,7 +3234,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>107</v>
       </c>
@@ -3219,7 +3247,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>108</v>
       </c>
@@ -3232,7 +3260,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>109</v>
       </c>
@@ -3245,7 +3273,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>110</v>
       </c>
@@ -3258,7 +3286,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>111</v>
       </c>
@@ -3271,7 +3299,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>112</v>
       </c>
@@ -3284,7 +3312,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>113</v>
       </c>
@@ -3297,7 +3325,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>114</v>
       </c>
@@ -3310,7 +3338,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
         <v>115</v>
       </c>
@@ -3323,7 +3351,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>116</v>
       </c>
@@ -3336,7 +3364,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
         <v>117</v>
       </c>
@@ -3349,7 +3377,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>118</v>
       </c>
@@ -3362,7 +3390,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>119</v>
       </c>
@@ -3375,7 +3403,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>120</v>
       </c>
@@ -3388,7 +3416,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>121</v>
       </c>
@@ -3401,7 +3429,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>122</v>
       </c>
@@ -3414,7 +3442,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>123</v>
       </c>
@@ -3427,7 +3455,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>124</v>
       </c>
@@ -3440,7 +3468,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>125</v>
       </c>
@@ -3453,7 +3481,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>126</v>
       </c>
@@ -3480,15 +3508,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B98519-5164-4E6D-BDC6-A98A4635A150}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3526,7 +3554,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -3538,7 +3566,7 @@
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
@@ -3550,7 +3578,7 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -3565,7 +3593,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3584,7 +3612,7 @@
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>127</v>
       </c>
@@ -3599,7 +3627,7 @@
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -3614,7 +3642,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3630,7 +3658,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3646,7 +3674,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -3666,7 +3694,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -3686,7 +3714,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -3709,7 +3737,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -3723,7 +3751,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -3737,7 +3765,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -3751,7 +3779,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -3765,7 +3793,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -3783,7 +3811,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -3803,7 +3831,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
@@ -3815,10 +3843,10 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -3841,7 +3869,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>129</v>
       </c>
@@ -3864,7 +3892,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
@@ -3887,7 +3915,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -3910,7 +3938,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -3926,7 +3954,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -3949,7 +3977,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
@@ -3972,7 +4000,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
@@ -3995,7 +4023,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
@@ -4009,7 +4037,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
@@ -4031,7 +4059,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>66</v>
       </c>
@@ -4053,7 +4081,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
@@ -4075,7 +4103,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -4097,7 +4125,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
@@ -4119,7 +4147,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -4141,42 +4169,42 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>71</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>72</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>73</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>74</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>76</v>
       </c>
@@ -4189,7 +4217,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -4202,7 +4230,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>78</v>
       </c>
@@ -4215,7 +4243,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>79</v>
       </c>
@@ -4228,7 +4256,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>80</v>
       </c>
@@ -4241,7 +4269,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>81</v>
       </c>
@@ -4254,7 +4282,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>82</v>
       </c>
@@ -4267,7 +4295,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>83</v>
       </c>
@@ -4280,7 +4308,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>84</v>
       </c>
@@ -4293,7 +4321,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>85</v>
       </c>
@@ -4306,7 +4334,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>86</v>
       </c>
@@ -4319,7 +4347,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>87</v>
       </c>
@@ -4332,7 +4360,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>88</v>
       </c>
@@ -4345,7 +4373,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>89</v>
       </c>
@@ -4358,7 +4386,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>90</v>
       </c>
@@ -4371,7 +4399,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>91</v>
       </c>
@@ -4384,7 +4412,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>92</v>
       </c>
@@ -4397,7 +4425,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>93</v>
       </c>
@@ -4410,7 +4438,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>94</v>
       </c>
@@ -4423,7 +4451,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -4436,7 +4464,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
         <v>96</v>
       </c>
@@ -4449,7 +4477,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>97</v>
       </c>
@@ -4471,7 +4499,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
         <v>98</v>
       </c>
@@ -4493,7 +4521,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>99</v>
       </c>
@@ -4515,7 +4543,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>100</v>
       </c>
@@ -4537,7 +4565,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>101</v>
       </c>
@@ -4559,7 +4587,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>102</v>
       </c>
@@ -4581,7 +4609,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>103</v>
       </c>
@@ -4603,7 +4631,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>104</v>
       </c>
@@ -4625,7 +4653,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>105</v>
       </c>
@@ -4647,7 +4675,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>106</v>
       </c>
@@ -4669,7 +4697,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>107</v>
       </c>
@@ -4691,7 +4719,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>108</v>
       </c>
@@ -4713,7 +4741,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>109</v>
       </c>
@@ -4726,7 +4754,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>110</v>
       </c>
@@ -4739,7 +4767,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>111</v>
       </c>
@@ -4752,7 +4780,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>112</v>
       </c>
@@ -4765,7 +4793,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>113</v>
       </c>
@@ -4778,7 +4806,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>114</v>
       </c>
@@ -4791,7 +4819,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
         <v>115</v>
       </c>
@@ -4813,7 +4841,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>116</v>
       </c>
@@ -4835,7 +4863,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
         <v>117</v>
       </c>
@@ -4857,7 +4885,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>118</v>
       </c>
@@ -4879,7 +4907,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>119</v>
       </c>
@@ -4901,7 +4929,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>120</v>
       </c>
@@ -4923,7 +4951,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>121</v>
       </c>
@@ -4936,7 +4964,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>122</v>
       </c>
@@ -4949,7 +4977,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>123</v>
       </c>
@@ -4962,7 +4990,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>124</v>
       </c>
@@ -4975,7 +5003,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>125</v>
       </c>
@@ -4988,7 +5016,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>126</v>
       </c>
@@ -5019,12 +5047,12 @@
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5062,7 +5090,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -5075,7 +5103,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
@@ -5088,7 +5116,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -5103,7 +5131,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -5119,7 +5147,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>127</v>
       </c>
@@ -5139,7 +5167,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -5154,7 +5182,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -5174,7 +5202,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -5194,7 +5222,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -5214,7 +5242,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -5234,7 +5262,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -5257,7 +5285,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -5271,7 +5299,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -5285,7 +5313,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -5299,7 +5327,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -5313,7 +5341,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -5329,7 +5357,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -5345,7 +5373,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
@@ -5368,7 +5396,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="13.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="13.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -5388,7 +5416,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>129</v>
       </c>
@@ -5411,7 +5439,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
@@ -5425,7 +5453,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -5446,7 +5474,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -5467,7 +5495,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -5488,7 +5516,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
@@ -5505,7 +5533,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
@@ -5519,7 +5547,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
@@ -5533,7 +5561,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
@@ -5557,7 +5585,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>66</v>
       </c>
@@ -5581,7 +5609,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
@@ -5605,7 +5633,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -5618,7 +5646,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
@@ -5631,7 +5659,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -5644,7 +5672,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>71</v>
       </c>
@@ -5657,7 +5685,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>72</v>
       </c>
@@ -5670,7 +5698,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>73</v>
       </c>
@@ -5683,7 +5711,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>74</v>
       </c>
@@ -5696,7 +5724,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
@@ -5709,7 +5737,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>76</v>
       </c>
@@ -5722,7 +5750,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -5746,7 +5774,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>78</v>
       </c>
@@ -5759,7 +5787,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>79</v>
       </c>
@@ -5783,7 +5811,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>80</v>
       </c>
@@ -5796,7 +5824,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>81</v>
       </c>
@@ -5809,7 +5837,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>82</v>
       </c>
@@ -5822,7 +5850,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>83</v>
       </c>
@@ -5846,7 +5874,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>84</v>
       </c>
@@ -5859,7 +5887,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>85</v>
       </c>
@@ -5883,7 +5911,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>86</v>
       </c>
@@ -5896,7 +5924,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>87</v>
       </c>
@@ -5909,7 +5937,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>88</v>
       </c>
@@ -5922,7 +5950,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>89</v>
       </c>
@@ -5935,7 +5963,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>90</v>
       </c>
@@ -5948,7 +5976,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>91</v>
       </c>
@@ -5961,7 +5989,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>92</v>
       </c>
@@ -5974,7 +6002,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>93</v>
       </c>
@@ -5987,7 +6015,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>94</v>
       </c>
@@ -6000,7 +6028,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -6013,7 +6041,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
         <v>96</v>
       </c>
@@ -6026,7 +6054,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>97</v>
       </c>
@@ -6050,7 +6078,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
         <v>98</v>
       </c>
@@ -6074,7 +6102,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>99</v>
       </c>
@@ -6098,7 +6126,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>100</v>
       </c>
@@ -6111,7 +6139,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>101</v>
       </c>
@@ -6124,7 +6152,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>102</v>
       </c>
@@ -6137,7 +6165,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>103</v>
       </c>
@@ -6161,7 +6189,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>104</v>
       </c>
@@ -6185,7 +6213,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>105</v>
       </c>
@@ -6209,7 +6237,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>106</v>
       </c>
@@ -6222,7 +6250,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>107</v>
       </c>
@@ -6235,7 +6263,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>108</v>
       </c>
@@ -6248,7 +6276,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>109</v>
       </c>
@@ -6261,7 +6289,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>110</v>
       </c>
@@ -6274,7 +6302,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>111</v>
       </c>
@@ -6287,7 +6315,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>112</v>
       </c>
@@ -6300,7 +6328,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>113</v>
       </c>
@@ -6313,7 +6341,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>114</v>
       </c>
@@ -6326,7 +6354,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
         <v>115</v>
       </c>
@@ -6339,7 +6367,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>116</v>
       </c>
@@ -6352,7 +6380,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
         <v>117</v>
       </c>
@@ -6365,7 +6393,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>118</v>
       </c>
@@ -6378,7 +6406,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>119</v>
       </c>
@@ -6391,7 +6419,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>120</v>
       </c>
@@ -6404,7 +6432,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>121</v>
       </c>
@@ -6417,7 +6445,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>122</v>
       </c>
@@ -6430,7 +6458,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>123</v>
       </c>
@@ -6443,7 +6471,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>124</v>
       </c>
@@ -6456,7 +6484,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>125</v>
       </c>
@@ -6469,7 +6497,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>126</v>
       </c>

--- a/data/PdfToExcel_Parametros.xlsx
+++ b/data/PdfToExcel_Parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyect\PdfToExcel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F1CD34-C6CC-463C-9A6C-8C2EEC8A0E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B508997-AF7A-4E45-BC1F-60831BA71A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="186">
   <si>
     <t>Selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1457,6 +1457,12 @@
         <v>33</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
     </row>
